--- a/5_results/5_3_mix/feature_importance_set_0.xlsx
+++ b/5_results/5_3_mix/feature_importance_set_0.xlsx
@@ -472,472 +472,472 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04158440195985443</v>
+        <v>0.08079498840594312</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003393694127706248</v>
+        <v>0.006259375270602489</v>
       </c>
       <c r="D2" t="n">
-        <v>5.275982901944052e-06</v>
+        <v>4.288446468809646e-06</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04857206507463916</v>
+        <v>0.09368312860187378</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03459673884506969</v>
+        <v>0.06790684821001247</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>demo-edad</t>
+          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.006355514070498414</v>
+        <v>0.002454145413646836</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0009769548558074331</v>
+        <v>0.0007031640296388692</v>
       </c>
       <c r="D3" t="n">
-        <v>6.494059313554633e-05</v>
+        <v>0.0007272838028851191</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.008367077621556996</v>
+        <v>0.003901969869432978</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004343950519439832</v>
+        <v>0.001006320957860693</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
+          <t>eval-TLP-FigRey-totalMemoria-PD</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005599000276605958</v>
+        <v>0.0006530943853847671</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001017541886051194</v>
+        <v>0.0002668977573678027</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001253318003696924</v>
+        <v>0.002714239154642858</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007694133083908816</v>
+        <v>0.001202640556724104</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0035038674693031</v>
+        <v>0.0001035482140454298</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabras-PD</t>
+          <t>demo-edad</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003841505838235149</v>
+        <v>0.0004003624772131786</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004410860576823082</v>
+        <v>0.0003150813347022604</v>
       </c>
       <c r="D5" t="n">
-        <v>2.049616645419445e-05</v>
+        <v>0.02340320723188576</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004749708127460214</v>
+        <v>0.001049119300251976</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002933303549010083</v>
+        <v>-0.0002483943458256188</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
+          <t>eval-TLP-FigRey-totalCopia-PD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002411080292199119</v>
+        <v>0.0001482307149329509</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005497262929255365</v>
+        <v>0.0001083104406083811</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0003029722053891855</v>
+        <v>0.01882517466155453</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003542974327357616</v>
+        <v>0.0003712434091549852</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001279186257040623</v>
+        <v>-7.478197928908339e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalMemoria-PD</t>
+          <t>eval-TLP-Stroop-palabras-PD</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002040096447742168</v>
+        <v>0.0001465106464471067</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0007127919645029976</v>
+        <v>0.0001049117490257512</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001530566314386473</v>
+        <v>0.01771706157243468</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003507744954485752</v>
+        <v>0.0003625253877255964</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0005724479409985838</v>
+        <v>-6.950409483138305e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-Duracion-PD</t>
+          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0015382365648692</v>
+        <v>2.341567046211246e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002583391655439511</v>
+        <v>2.30965698800533e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>9.19795089689453e-05</v>
+        <v>0.04300796185306898</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002070160477350916</v>
+        <v>7.097182707366264e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001006312652387483</v>
+        <v>-2.414048614943773e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabrasColor-PD</t>
+          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007270523388692273</v>
+        <v>1.48717189464076e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001407994820809989</v>
+        <v>1.611985137326432e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001606616729593596</v>
+        <v>0.05404621157704195</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001016960418529656</v>
+        <v>4.806271572398196e-05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0004371442592087992</v>
+        <v>-1.831927783116677e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>demo-genero</t>
+          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0006911130857312653</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002988730488532078</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003324438938344789</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001306496824184546</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>7.572934727798466e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
+          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.000689244656025978</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003749185516183605</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.007361541192321254</v>
+        <v>0.5</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001461207135733253</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.271782368129738e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalCopia-PD</t>
+          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0006432309375584034</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001352088690467999</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0002210914943133378</v>
+        <v>0.5</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0009216278677109319</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0003648340074058748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
+          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0006349608739541601</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000151131177144188</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0003576817897864343</v>
+        <v>0.5</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0009461420565488959</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0003237796913594244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
+          <t>clin-reservaCognitiva_escolaridad</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0006156660933721136</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001361221569887476</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0002689837702314769</v>
+        <v>0.5</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0008959434960200934</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0003353886907241338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>clin-reservaCognitiva_escolaridad</t>
+          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0006100681075882575</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002051687802818091</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001328320480793325</v>
+        <v>0.5</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>0.001032513461922402</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0001876227532541131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
+          <t>eval-TLP-Stroop-palabrasColor-PD</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.000442086253870122</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>5.805510033411741e-05</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>3.488142233932471e-05</v>
+        <v>0.5</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0005616225078648289</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0003225499998754152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
+          <t>eval-TLP-FigRey-Duracion-PD</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0003082613827708469</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.000121526066431917</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002383135157952939</v>
+        <v>0.5</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>0.000558485233222902</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.80375323187919e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
+          <t>eval-TLP-CubCorsi-total-PD</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0001597350345090787</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001155781000197108</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01828070102036488</v>
+        <v>0.5</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0003977119399087688</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.824187089061144e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-total-PD</t>
+          <t>demo-genero</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.000146982894440284</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>7.922796989356868e-05</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.007139809830238195</v>
+        <v>0.5</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0003101143794980574</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.614859061748941e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
+          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.646125103264236e-05</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>5.607943677474992e-05</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.009180858145635736</v>
+        <v>0.5</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0002119295864520392</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.900708438675453e-05</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/5_results/5_3_mix/feature_importance_set_0.xlsx
+++ b/5_results/5_3_mix/feature_importance_set_0.xlsx
@@ -468,476 +468,476 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-color-PD</t>
+          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08079498840594312</v>
+        <v>0.1250675377936805</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006259375270602489</v>
+        <v>0.01200455343966907</v>
       </c>
       <c r="D2" t="n">
-        <v>4.288446468809646e-06</v>
+        <v>1.006168551615942e-05</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09368312860187378</v>
+        <v>0.1497850792465202</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06790684821001247</v>
+        <v>0.1003499963408408</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
+          <t>eval-TLP-Stroop-palabras-PD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002454145413646836</v>
+        <v>0.03526902514601884</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007031640296388692</v>
+        <v>0.006329799191175533</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0007272838028851191</v>
+        <v>0.0001193279126707493</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003901969869432978</v>
+        <v>0.04830216916777141</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001006320957860693</v>
+        <v>0.02223588112426626</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalMemoria-PD</t>
+          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006530943853847671</v>
+        <v>0.02983590055334344</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002668977573678027</v>
+        <v>0.003340067314021271</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002714239154642858</v>
+        <v>1.853630592663059e-05</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001202640556724104</v>
+        <v>0.03671314531754948</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0001035482140454298</v>
+        <v>0.02295865578913741</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>demo-edad</t>
+          <t>eval-TLP-FigRey-totalCopia-PD</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0004003624772131786</v>
+        <v>0.02384463500134852</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003150813347022604</v>
+        <v>0.002494988106581925</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02340320723188576</v>
+        <v>1.4176827681627e-05</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001049119300251976</v>
+        <v>0.02898184999720103</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0002483943458256188</v>
+        <v>0.01870742000549602</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalCopia-PD</t>
+          <t>eval-TLP-Stroop-color-PD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001482307149329509</v>
+        <v>0.02114579469711753</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001083104406083811</v>
+        <v>0.004547455410168834</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01882517466155453</v>
+        <v>0.0002415697194423527</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0003712434091549852</v>
+        <v>0.03050906823916832</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.478197928908339e-05</v>
+        <v>0.01178252115506674</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabras-PD</t>
+          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0001465106464471067</v>
+        <v>0.02035362832002317</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001049117490257512</v>
+        <v>0.002614692964500915</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01771706157243468</v>
+        <v>3.19742609439621e-05</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0003625253877255964</v>
+        <v>0.02573731727282783</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.950409483138305e-05</v>
+        <v>0.0149699393672185</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
+          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.341567046211246e-05</v>
+        <v>0.01567667543541345</v>
       </c>
       <c r="C8" t="n">
-        <v>2.30965698800533e-05</v>
+        <v>0.002805146661427357</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04300796185306898</v>
+        <v>0.0001179426239786993</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>7.097182707366264e-05</v>
+        <v>0.02145251118253949</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.414048614943773e-05</v>
+        <v>0.009900839688287404</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
+          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.48717189464076e-05</v>
+        <v>0.01182916215420267</v>
       </c>
       <c r="C9" t="n">
-        <v>1.611985137326432e-05</v>
+        <v>0.003405451917109549</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05404621157704195</v>
+        <v>0.0007405160022156362</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>4.806271572398196e-05</v>
+        <v>0.01884103471987872</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.831927783116677e-05</v>
+        <v>0.004817289588526615</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
+          <t>demo-edad</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.01022676547995747</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.001110569961620834</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5</v>
+        <v>1.642909819722318e-05</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.01251344438064286</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.007940086579272074</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
+          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.009840559462907073</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.001015180573012487</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5</v>
+        <v>1.340101198236547e-05</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.01193083029402642</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.007750288631787726</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
+          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.008026067435744234</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.001081253804881311</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5</v>
+        <v>3.858724528140287e-05</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.0102523839645106</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.005799750906977864</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
+          <t>eval-TLP-FigRey-Duracion-PD</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.007777529798501348</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.001743638788570052</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5</v>
+        <v>0.0002838461515335046</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.01136770616381623</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.004187353433186463</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>clin-reservaCognitiva_escolaridad</t>
+          <t>eval-TLP-CubCorsi-total-PD</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.006219369320348012</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.0008133718991694272</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5</v>
+        <v>3.431728467753283e-05</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.007894113302732205</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.004544625337963818</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
+          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.006075353452851484</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.0009337684578467238</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5</v>
+        <v>6.490752986907435e-05</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.007997995613609513</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.004152711292093455</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabrasColor-PD</t>
+          <t>clin-reservaCognitiva_escolaridad</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.005844483041319881</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.001326973247966176</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5</v>
+        <v>0.000298104957952118</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.008576739299601607</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.003112226783038154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-Duracion-PD</t>
+          <t>eval-TLP-Stroop-palabrasColor-PD</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.004807276447223318</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.0005915997996411</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5</v>
+        <v>2.697601650855942e-05</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.006025388611462528</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.003589164282984109</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-total-PD</t>
+          <t>eval-TLP-FigRey-totalMemoria-PD</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.004753936505867818</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.0003183464810602061</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5</v>
+        <v>2.398698911571985e-06</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.005409416310386743</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.004098456701348892</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>demo-genero</t>
+          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.003216599405299703</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.0004756559895173824</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5</v>
+        <v>5.574523968973962e-05</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.004195981661980422</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.002237217148618984</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
+          <t>demo-genero</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.003111829673287181</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.0006184184951607577</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5</v>
+        <v>0.00017771234993727</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.004385161902275129</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.001838497444299232</v>
       </c>
     </row>
   </sheetData>
